--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tff2-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>Inflammatory-Mac</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -540,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.516177</v>
+        <v>0.5224156666666667</v>
       </c>
       <c r="H2">
-        <v>4.548531</v>
+        <v>1.567247</v>
       </c>
       <c r="I2">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="J2">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N2">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O2">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P2">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q2">
-        <v>32.758121507449</v>
+        <v>9.460341721159999</v>
       </c>
       <c r="R2">
-        <v>294.823093567041</v>
+        <v>85.14307549044</v>
       </c>
       <c r="S2">
-        <v>0.03404063586016183</v>
+        <v>0.004019244622398928</v>
       </c>
       <c r="T2">
-        <v>0.03428349739236754</v>
+        <v>0.004056647829377166</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -602,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.516177</v>
+        <v>0.5224156666666667</v>
       </c>
       <c r="H3">
-        <v>4.548531</v>
+        <v>1.567247</v>
       </c>
       <c r="I3">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="J3">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +626,22 @@
         <v>1.421584</v>
       </c>
       <c r="O3">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P3">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q3">
-        <v>0.7184576547893332</v>
+        <v>0.2475525843608889</v>
       </c>
       <c r="R3">
-        <v>6.466118893103999</v>
+        <v>2.227973259248</v>
       </c>
       <c r="S3">
-        <v>0.0007465860153815056</v>
+        <v>0.0001051731980492835</v>
       </c>
       <c r="T3">
-        <v>0.0007519125029466544</v>
+        <v>0.0001061519428794134</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -664,16 +664,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.516177</v>
+        <v>0.5224156666666667</v>
       </c>
       <c r="H4">
-        <v>4.548531</v>
+        <v>1.567247</v>
       </c>
       <c r="I4">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="J4">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N4">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O4">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P4">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q4">
-        <v>347.426868227634</v>
+        <v>159.7143479874287</v>
       </c>
       <c r="R4">
-        <v>3126.841814048706</v>
+        <v>1437.429131886858</v>
       </c>
       <c r="S4">
-        <v>0.361028989610531</v>
+        <v>0.06785495209254579</v>
       </c>
       <c r="T4">
-        <v>0.3636047362548558</v>
+        <v>0.06848641224390653</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,10 +711,10 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
@@ -726,16 +726,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.516177</v>
+        <v>0.5224156666666667</v>
       </c>
       <c r="H5">
-        <v>4.548531</v>
+        <v>1.567247</v>
       </c>
       <c r="I5">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="J5">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N5">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O5">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P5">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q5">
-        <v>15.5359662740425</v>
+        <v>9.227871712442166</v>
       </c>
       <c r="R5">
-        <v>93.21579764425499</v>
+        <v>55.367230274653</v>
       </c>
       <c r="S5">
-        <v>0.01614421542914717</v>
+        <v>0.003920479286013848</v>
       </c>
       <c r="T5">
-        <v>0.01083959711839052</v>
+        <v>0.002637975586605582</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,13 +773,13 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -788,16 +788,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.516177</v>
+        <v>0.5224156666666667</v>
       </c>
       <c r="H6">
-        <v>4.548531</v>
+        <v>1.567247</v>
       </c>
       <c r="I6">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="J6">
-        <v>0.7596649313433593</v>
+        <v>0.1417347608275029</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>220.6895343333333</v>
+        <v>296.6213786666667</v>
       </c>
       <c r="N6">
-        <v>662.0686029999999</v>
+        <v>889.864136</v>
       </c>
       <c r="O6">
-        <v>0.4577077209728135</v>
+        <v>0.4644937575237376</v>
       </c>
       <c r="P6">
-        <v>0.4609732180943856</v>
+        <v>0.4688163498974233</v>
       </c>
       <c r="Q6">
-        <v>334.6043960969102</v>
+        <v>154.9596552837324</v>
       </c>
       <c r="R6">
-        <v>3011.439564872192</v>
+        <v>1394.636897553592</v>
       </c>
       <c r="S6">
-        <v>0.3477045044281378</v>
+        <v>0.06583491162849506</v>
       </c>
       <c r="T6">
-        <v>0.3501851880747988</v>
+        <v>0.06644757322473421</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,31 +835,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4796726666666666</v>
+        <v>1.746494666666667</v>
       </c>
       <c r="H7">
-        <v>1.439018</v>
+        <v>5.239484</v>
       </c>
       <c r="I7">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607538</v>
       </c>
       <c r="J7">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607539</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.605737</v>
+        <v>18.10884</v>
       </c>
       <c r="N7">
-        <v>64.817211</v>
+        <v>54.32652</v>
       </c>
       <c r="O7">
-        <v>0.04481006619585007</v>
+        <v>0.02835750805894763</v>
       </c>
       <c r="P7">
-        <v>0.04512976179082277</v>
+        <v>0.02862140385105863</v>
       </c>
       <c r="Q7">
-        <v>10.36368148208867</v>
+        <v>31.62699247951999</v>
       </c>
       <c r="R7">
-        <v>93.27313333879799</v>
+        <v>284.64293231568</v>
       </c>
       <c r="S7">
-        <v>0.01076943033568824</v>
+        <v>0.01343678940916475</v>
       </c>
       <c r="T7">
-        <v>0.01084626439845523</v>
+        <v>0.01356183256095331</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,31 +897,31 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
         <v>25</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.4796726666666666</v>
+        <v>1.746494666666667</v>
       </c>
       <c r="H8">
-        <v>1.439018</v>
+        <v>5.239484</v>
       </c>
       <c r="I8">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607538</v>
       </c>
       <c r="J8">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607539</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>1.421584</v>
       </c>
       <c r="O8">
-        <v>0.0009827833095589584</v>
+        <v>0.0007420423715060531</v>
       </c>
       <c r="P8">
-        <v>0.0009897949371139249</v>
+        <v>0.0007489478393278889</v>
       </c>
       <c r="Q8">
-        <v>0.2272983293902222</v>
+        <v>0.8275962914062222</v>
       </c>
       <c r="R8">
-        <v>2.045684964512</v>
+        <v>7.448366622656</v>
       </c>
       <c r="S8">
-        <v>0.0002361972941774528</v>
+        <v>0.0003516058977353614</v>
       </c>
       <c r="T8">
-        <v>0.0002378824341672704</v>
+        <v>0.000354877952413117</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,31 +959,31 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.4796726666666666</v>
+        <v>1.746494666666667</v>
       </c>
       <c r="H9">
-        <v>1.439018</v>
+        <v>5.239484</v>
       </c>
       <c r="I9">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607538</v>
       </c>
       <c r="J9">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607539</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>229.146642</v>
+        <v>305.722738</v>
       </c>
       <c r="N9">
-        <v>687.439926</v>
+        <v>917.168214</v>
       </c>
       <c r="O9">
-        <v>0.4752476713280717</v>
+        <v>0.4787460161246407</v>
       </c>
       <c r="P9">
-        <v>0.4786383065121521</v>
+        <v>0.4832012404300546</v>
       </c>
       <c r="Q9">
-        <v>109.915380825852</v>
+        <v>533.9431313957307</v>
       </c>
       <c r="R9">
-        <v>989.238427432668</v>
+        <v>4805.488182561577</v>
       </c>
       <c r="S9">
-        <v>0.1142186817175407</v>
+        <v>0.2268467802520344</v>
       </c>
       <c r="T9">
-        <v>0.1150335702572963</v>
+        <v>0.2289578229655902</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,31 +1021,31 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.4796726666666666</v>
+        <v>1.746494666666667</v>
       </c>
       <c r="H10">
-        <v>1.439018</v>
+        <v>5.239484</v>
       </c>
       <c r="I10">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607538</v>
       </c>
       <c r="J10">
-        <v>0.2403350686566406</v>
+        <v>0.4738353377607539</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>10.2468025</v>
+        <v>17.6638495</v>
       </c>
       <c r="N10">
-        <v>20.493605</v>
+        <v>35.327699</v>
       </c>
       <c r="O10">
-        <v>0.02125175819370577</v>
+        <v>0.02766067592116823</v>
       </c>
       <c r="P10">
-        <v>0.01426891866552565</v>
+        <v>0.01861205798213543</v>
       </c>
       <c r="Q10">
-        <v>4.915111079981666</v>
+        <v>30.84981894455266</v>
       </c>
       <c r="R10">
-        <v>29.49066647989</v>
+        <v>185.098913667316</v>
       </c>
       <c r="S10">
-        <v>0.005107542764558602</v>
+        <v>0.0131066057177975</v>
       </c>
       <c r="T10">
-        <v>0.003429321547135128</v>
+        <v>0.008819050780387878</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.746494666666667</v>
+      </c>
+      <c r="H11">
+        <v>5.239484</v>
+      </c>
+      <c r="I11">
+        <v>0.4738353377607538</v>
+      </c>
+      <c r="J11">
+        <v>0.4738353377607539</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>296.6213786666667</v>
+      </c>
+      <c r="N11">
+        <v>889.864136</v>
+      </c>
+      <c r="O11">
+        <v>0.4644937575237376</v>
+      </c>
+      <c r="P11">
+        <v>0.4688163498974233</v>
+      </c>
+      <c r="Q11">
+        <v>518.0476558606471</v>
+      </c>
+      <c r="R11">
+        <v>4662.428902745824</v>
+      </c>
+      <c r="S11">
+        <v>0.2200935564840219</v>
+      </c>
+      <c r="T11">
+        <v>0.2221417535014094</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.416958</v>
+      </c>
+      <c r="H12">
+        <v>4.250874</v>
+      </c>
+      <c r="I12">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="J12">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>18.10884</v>
+      </c>
+      <c r="N12">
+        <v>54.32652</v>
+      </c>
+      <c r="O12">
+        <v>0.02835750805894763</v>
+      </c>
+      <c r="P12">
+        <v>0.02862140385105863</v>
+      </c>
+      <c r="Q12">
+        <v>25.65946570872</v>
+      </c>
+      <c r="R12">
+        <v>230.93519137848</v>
+      </c>
+      <c r="S12">
+        <v>0.01090147402738395</v>
+      </c>
+      <c r="T12">
+        <v>0.01100292346072816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.416958</v>
+      </c>
+      <c r="H13">
+        <v>4.250874</v>
+      </c>
+      <c r="I13">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="J13">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.4738613333333333</v>
+      </c>
+      <c r="N13">
+        <v>1.421584</v>
+      </c>
+      <c r="O13">
+        <v>0.0007420423715060531</v>
+      </c>
+      <c r="P13">
+        <v>0.0007489478393278889</v>
+      </c>
+      <c r="Q13">
+        <v>0.6714416071573333</v>
+      </c>
+      <c r="R13">
+        <v>6.042974464415999</v>
+      </c>
+      <c r="S13">
+        <v>0.0002852632757214082</v>
+      </c>
+      <c r="T13">
+        <v>0.0002879179440353585</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1.416958</v>
+      </c>
+      <c r="H14">
+        <v>4.250874</v>
+      </c>
+      <c r="I14">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="J14">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>305.722738</v>
+      </c>
+      <c r="N14">
+        <v>917.168214</v>
+      </c>
+      <c r="O14">
+        <v>0.4787460161246407</v>
+      </c>
+      <c r="P14">
+        <v>0.4832012404300546</v>
+      </c>
+      <c r="Q14">
+        <v>433.196279391004</v>
+      </c>
+      <c r="R14">
+        <v>3898.766514519036</v>
+      </c>
+      <c r="S14">
+        <v>0.1840442837800605</v>
+      </c>
+      <c r="T14">
+        <v>0.185757005220558</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>1.416958</v>
+      </c>
+      <c r="H15">
+        <v>4.250874</v>
+      </c>
+      <c r="I15">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="J15">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="K15">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G11">
-        <v>0.4796726666666666</v>
-      </c>
-      <c r="H11">
-        <v>1.439018</v>
-      </c>
-      <c r="I11">
-        <v>0.2403350686566406</v>
-      </c>
-      <c r="J11">
-        <v>0.2403350686566406</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>220.6895343333333</v>
-      </c>
-      <c r="N11">
-        <v>662.0686029999999</v>
-      </c>
-      <c r="O11">
-        <v>0.4577077209728135</v>
-      </c>
-      <c r="P11">
-        <v>0.4609732180943856</v>
-      </c>
-      <c r="Q11">
-        <v>105.8587374390949</v>
-      </c>
-      <c r="R11">
-        <v>952.7286369518539</v>
-      </c>
-      <c r="S11">
-        <v>0.1100032165446757</v>
-      </c>
-      <c r="T11">
-        <v>0.1107880300195867</v>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>17.6638495</v>
+      </c>
+      <c r="N15">
+        <v>35.327699</v>
+      </c>
+      <c r="O15">
+        <v>0.02766067592116823</v>
+      </c>
+      <c r="P15">
+        <v>0.01861205798213543</v>
+      </c>
+      <c r="Q15">
+        <v>25.02893285982099</v>
+      </c>
+      <c r="R15">
+        <v>150.173597158926</v>
+      </c>
+      <c r="S15">
+        <v>0.01063359091735688</v>
+      </c>
+      <c r="T15">
+        <v>0.007155031615141975</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>1.416958</v>
+      </c>
+      <c r="H16">
+        <v>4.250874</v>
+      </c>
+      <c r="I16">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="J16">
+        <v>0.3844299014117433</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>296.6213786666667</v>
+      </c>
+      <c r="N16">
+        <v>889.864136</v>
+      </c>
+      <c r="O16">
+        <v>0.4644937575237376</v>
+      </c>
+      <c r="P16">
+        <v>0.4688163498974233</v>
+      </c>
+      <c r="Q16">
+        <v>420.3000354727627</v>
+      </c>
+      <c r="R16">
+        <v>3782.700319254864</v>
+      </c>
+      <c r="S16">
+        <v>0.1785652894112206</v>
+      </c>
+      <c r="T16">
+        <v>0.1802270231712798</v>
       </c>
     </row>
   </sheetData>
